--- a/biology/Médecine/Auriculothérapie/Auriculothérapie.xlsx
+++ b/biology/Médecine/Auriculothérapie/Auriculothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auriculoth%C3%A9rapie</t>
+          <t>Auriculothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auriculothérapie ou auriculomédecine, anciennement appelée acupuncture auriculaire, est une approche de médecine non conventionnelle dérivée de l'acupuncture.
 En l'absence de preuves scientifiques, cette approche est considéré une pseudoscience.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auriculoth%C3%A9rapie</t>
+          <t>Auriculothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle relève de la somatotopie (cartographie du corps, permettant ici de construire des représentations des différents organes du corps sur le pavillon de l'oreille, reconstituant grossièrement l'image d’un fœtus inversé. Selon Nogier, l'atteinte d’un organe se traduirait sur l'oreille par l'apparition de zones douloureuses à la pression. Et selon le René J. Bourdiol, il existerait une action sur l'organe en cas de puncture ou stimulation de la zone auriculaire correspondante chez l'homme et l'animal. Les mécanismes de cette action seraient sous-tendus par une convergence neuronale, réunissant, les signaux en provenance de l’organe malade, et des zones cutanées de l'oreille.
-Elle se fonde sur l'idée que l'oreille serait un microsystème reflétant tout le corps, représenté sur la surface externe du pavillon. Elle postule que des flux d'énergies non matérielles passent à travers des canaux hypothétiques dits méridiens énergétiques[1], centralisés sur la surface de la peau de l'oreille. Les affections de santé physique, mentale ou émotionnelle du patient sont supposées être traitables par stimulation de la surface de l'oreille.
-Des cartographies similaires sont utilisées dans de nombreuses zones du corps, par les pratiquants de réflexologie ou d'iridologie. Ces cartographies n'étant pas étayées sur des preuves médicales ou scientifiques, elles sont considérées comme des pseudosciences[2],[3],[4].
+Elle se fonde sur l'idée que l'oreille serait un microsystème reflétant tout le corps, représenté sur la surface externe du pavillon. Elle postule que des flux d'énergies non matérielles passent à travers des canaux hypothétiques dits méridiens énergétiques, centralisés sur la surface de la peau de l'oreille. Les affections de santé physique, mentale ou émotionnelle du patient sont supposées être traitables par stimulation de la surface de l'oreille.
+Des cartographies similaires sont utilisées dans de nombreuses zones du corps, par les pratiquants de réflexologie ou d'iridologie. Ces cartographies n'étant pas étayées sur des preuves médicales ou scientifiques, elles sont considérées comme des pseudosciences.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auriculoth%C3%A9rapie</t>
+          <t>Auriculothérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acupuncture auriculaire était, en Chine, très peu développée. Jusque dans les années 1960, l'acupuncture chinoise n'utilisait les points de l'oreille qu'en cas de maladies des yeux, de la gorge et de maladies accompagnées de fièvre.
-Cette approche est actualisé par les travaux du Dr Paul Nogier, dans les années 1960. C'est notamment à la suite d’une conférence avec le médecin allemand Gerhard Bachmann en 1956, que les premiers écrits en langue chinoise sur l'auriculothérapie voient le jour[5]. Selon Paul Nogier, la plupart des zones corporelles posséderaient sur l’oreille une correspondance précise et leur piqûre par une aiguille courte d'un millimètre d’épaisseur provoquerait « une vive douleur en même temps qu’une sédation ou une guérison de la maladie de l’organe correspondant ».
-Certains la présentent comme l'une des formes de la neuromodulation[6].
-Cette pratique est présentée lors de différents salons tels que celui du Vaudreuil[7].
+Cette approche est actualisé par les travaux du Dr Paul Nogier, dans les années 1960. C'est notamment à la suite d’une conférence avec le médecin allemand Gerhard Bachmann en 1956, que les premiers écrits en langue chinoise sur l'auriculothérapie voient le jour. Selon Paul Nogier, la plupart des zones corporelles posséderaient sur l’oreille une correspondance précise et leur piqûre par une aiguille courte d'un millimètre d’épaisseur provoquerait « une vive douleur en même temps qu’une sédation ou une guérison de la maladie de l’organe correspondant ».
+Certains la présentent comme l'une des formes de la neuromodulation.
+Cette pratique est présentée lors de différents salons tels que celui du Vaudreuil.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auriculoth%C3%A9rapie</t>
+          <t>Auriculothérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,21 +597,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manque de fondements théoriques
-Le mécanisme de fonctionnement de cette pratique ne correspondent à aucune données physiologique humaine ou animale. Il n'y a pas de raison logique de croire que les cartes auriculaires sont valides.
-Aucune voie anatomique ou physiologique connue relie les points de l'oreille au reste du corps, que ce soit par le biais de neurones, ou de méridien énergétique (dont le concept scientifique n'existe pas[1]). Et si de nouvelles voies étaient découvertes, il faudrait encore expliquer comment les dysfonctionnements d'organes pourraient être détectés sur l'oreille, et comment les emplacements pourraient varier en fonction du stade de la maladie.
+          <t>Manque de fondements théoriques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mécanisme de fonctionnement de cette pratique ne correspondent à aucune données physiologique humaine ou animale. Il n'y a pas de raison logique de croire que les cartes auriculaires sont valides.
+Aucune voie anatomique ou physiologique connue relie les points de l'oreille au reste du corps, que ce soit par le biais de neurones, ou de méridien énergétique (dont le concept scientifique n'existe pas). Et si de nouvelles voies étaient découvertes, il faudrait encore expliquer comment les dysfonctionnements d'organes pourraient être détectés sur l'oreille, et comment les emplacements pourraient varier en fonction du stade de la maladie.
 La communauté scientifique rejette le concept de méridien comme étant issu d'une vision obsolète de la médecine, tout comme la théorie des humeurs. Il n'existe pas de preuve scientifique de leur existence.
 Et l'acupuncture, supposée reposer sur la connaissance des méridiens, n'a pas été démontrée plus efficace que l'effet placebo[réf. nécessaire].
-Le modèle théorique de l'auriculothérapie n'est pas scientifiquement validé. Et pour l'INSERM, l'enseignement et la pratique de l'auriculothérapie en France sont insuffisamment structurés. L'enseignement est majoritairement associatif. Il existe une formation universitaire (DIU), mais elle n’est pas reconnue par le Conseil national de l'Ordre des médecins et n'a été suivie que par peu de praticiens. Il existe de ce fait une hétérogénéité certaine des pratiques[8].
-Inefficacité
-Les critiques, dont émises par la plupart des médecins, se basent sur l'absence de preuve scientifique des assertions de l'auriculothérapie[3]. Les données cliniques n'indiquent pas de corrélation entre une maladie présente dans le corps et la convergence d'informations sur la peau du pavillon de l'oreille.
-Une expertise  approfondie titrée Évaluation de l'efficacité de la pratique de l'auriculothérapie a été faite par l'unité Inserm U669 à la demande du ministère français de la Santé (Direction générale de la Santé) en juillet 2013[8]. Cette expertise n'a pas permis de mettre en avant une supériorité de l'effet thérapeutique de l'auriculothérapie comparé à un placebo pour la majorité des indications revendiquées sauf pour la douleur peropératoire et l'anxiété préopératoire[8].
-En 2007, un rapport de la Haute Autorité de santé (HAS) ne recommandait pas l'utilisation de l'auriculothérapie dans la stratégie de sevrage tabagique, arguant qu'elle n’avait pas fait la preuve de son efficacité thérapeutique[9].
-Enfin, une méta-analyse faite par l'organisation Cochrane a conclu à l'absence de preuve d'efficacité dans le traitement de la dépendance à la cocaïne[10].
-En novembre 2023, le Conseil national de l'Ordre national des infirmiers en France note que la quinzaine de méta-analyses existantes recensant plus de 240 études menées sur l'auriculothérapie concluent à l'absence de preuves concernant son efficacité réelle sur la santé des patients[11].
-L'auriculothérapie ne bénéficie d'aucune reconnaissance officielle en France. Le Conseil national de l'Ordre des médecins et la Miviludes soulignent le danger de la pratique lorsque celle-ci est utilisée comme traitement de substitution[11].
-Sur l'utilisation commerciale
-Sa pratique commerciale a été contestée en France en 2000 par une décision de l'Agence française de sécurité sanitaire des produits de santé : une équipe de commerciaux non-médecins s'est vue privée de toute publicité dans la mesure où pour cette technique « aucune preuve scientifique n'a été apportée »[12].
+Le modèle théorique de l'auriculothérapie n'est pas scientifiquement validé. Et pour l'INSERM, l'enseignement et la pratique de l'auriculothérapie en France sont insuffisamment structurés. L'enseignement est majoritairement associatif. Il existe une formation universitaire (DIU), mais elle n’est pas reconnue par le Conseil national de l'Ordre des médecins et n'a été suivie que par peu de praticiens. Il existe de ce fait une hétérogénéité certaine des pratiques.
 </t>
         </is>
       </c>
@@ -606,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Auriculoth%C3%A9rapie</t>
+          <t>Auriculothérapie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,13 +633,94 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inefficacité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critiques, dont émises par la plupart des médecins, se basent sur l'absence de preuve scientifique des assertions de l'auriculothérapie. Les données cliniques n'indiquent pas de corrélation entre une maladie présente dans le corps et la convergence d'informations sur la peau du pavillon de l'oreille.
+Une expertise  approfondie titrée Évaluation de l'efficacité de la pratique de l'auriculothérapie a été faite par l'unité Inserm U669 à la demande du ministère français de la Santé (Direction générale de la Santé) en juillet 2013. Cette expertise n'a pas permis de mettre en avant une supériorité de l'effet thérapeutique de l'auriculothérapie comparé à un placebo pour la majorité des indications revendiquées sauf pour la douleur peropératoire et l'anxiété préopératoire.
+En 2007, un rapport de la Haute Autorité de santé (HAS) ne recommandait pas l'utilisation de l'auriculothérapie dans la stratégie de sevrage tabagique, arguant qu'elle n’avait pas fait la preuve de son efficacité thérapeutique.
+Enfin, une méta-analyse faite par l'organisation Cochrane a conclu à l'absence de preuve d'efficacité dans le traitement de la dépendance à la cocaïne.
+En novembre 2023, le Conseil national de l'Ordre national des infirmiers en France note que la quinzaine de méta-analyses existantes recensant plus de 240 études menées sur l'auriculothérapie concluent à l'absence de preuves concernant son efficacité réelle sur la santé des patients.
+L'auriculothérapie ne bénéficie d'aucune reconnaissance officielle en France. Le Conseil national de l'Ordre des médecins et la Miviludes soulignent le danger de la pratique lorsque celle-ci est utilisée comme traitement de substitution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Auriculothérapie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auriculoth%C3%A9rapie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sur l'utilisation commerciale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa pratique commerciale a été contestée en France en 2000 par une décision de l'Agence française de sécurité sanitaire des produits de santé : une équipe de commerciaux non-médecins s'est vue privée de toute publicité dans la mesure où pour cette technique « aucune preuve scientifique n'a été apportée ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Auriculothérapie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auriculoth%C3%A9rapie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quelques résultats d'effets bénéfiques sur l'insomnie[13], la diminution de la douleur post-césarienne[14] ou encore dans le syndrome prémenstruel[15] pourraient être dû à des biais de publications, des faiblesses méthodologiques ou bien aux effets positifs de la stimulation du nerf vague[15].
-Elle est considérée d'un point de vue médical comme une pseudo-médecine, c'est-à-dire une médecine non basée sur des preuves scientifiques[16], et dont les évaluations scientifiques n'ont jamais conclu à une efficacité tangible.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques résultats d'effets bénéfiques sur l'insomnie, la diminution de la douleur post-césarienne ou encore dans le syndrome prémenstruel pourraient être dû à des biais de publications, des faiblesses méthodologiques ou bien aux effets positifs de la stimulation du nerf vague.
+Elle est considérée d'un point de vue médical comme une pseudo-médecine, c'est-à-dire une médecine non basée sur des preuves scientifiques, et dont les évaluations scientifiques n'ont jamais conclu à une efficacité tangible.
 </t>
         </is>
       </c>
